--- a/databases/xlsx/import_all/import 21.05.xlsx
+++ b/databases/xlsx/import_all/import 21.05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Корректировки показаний" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="525">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">Аптека</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 2</t>
   </si>
   <si>
     <t xml:space="preserve">Смертин ИП</t>
@@ -1430,6 +1433,9 @@
     <t xml:space="preserve">17347</t>
   </si>
   <si>
+    <t xml:space="preserve">Бывший Олтекс ООО</t>
+  </si>
+  <si>
     <t xml:space="preserve">Смирнова (вместо смазливки) ИП</t>
   </si>
   <si>
@@ -1731,6 +1737,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ателье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодова  Е.С.  № 102</t>
@@ -1983,6 +1992,9 @@
   </si>
   <si>
     <t xml:space="preserve">GARDEROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 9</t>
   </si>
   <si>
     <t xml:space="preserve">Грохольский</t>
@@ -2734,6 +2746,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2920,10 +2936,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3190,11 +3202,13 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E212" activeCellId="0" sqref="E212"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -3253,10 +3267,13 @@
       <c r="H2" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
+      <c r="A3" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>70886</v>
@@ -3264,22 +3281,22 @@
       <c r="C3" s="8" t="n">
         <v>70998</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
+      <c r="A4" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>10103</v>
@@ -3287,45 +3304,45 @@
       <c r="C4" s="8" t="n">
         <v>10255</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14" t="n">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15" t="n">
         <v>24750</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="15" t="n">
         <v>25468</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
+      <c r="A6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>88928</v>
@@ -3333,22 +3350,22 @@
       <c r="C6" s="8" t="n">
         <v>90867</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
+      <c r="A7" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>218963</v>
@@ -3356,22 +3373,22 @@
       <c r="C7" s="8" t="n">
         <v>223468</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
+      <c r="A8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>35420</v>
@@ -3379,22 +3396,22 @@
       <c r="C8" s="8" t="n">
         <v>36225</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>28</v>
+      <c r="A9" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>26830</v>
@@ -3402,45 +3419,45 @@
       <c r="C9" s="8" t="n">
         <v>27039</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>8383</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="18" t="n">
+      <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19" t="n">
         <v>65420.884</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="19" t="n">
         <v>65928.906</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="20" t="n">
         <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>32</v>
+      <c r="A11" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1920</v>
@@ -3448,22 +3465,22 @@
       <c r="C11" s="8" t="n">
         <v>3528</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>35</v>
+      <c r="A12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>33564</v>
@@ -3471,14 +3488,14 @@
       <c r="C12" s="8" t="n">
         <v>34132</v>
       </c>
-      <c r="D12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>37</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
@@ -3488,23 +3505,23 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="24" t="n">
+      <c r="A13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>37738.5</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="25" t="n">
         <v>37962.5</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="27" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1</v>
@@ -3514,230 +3531,230 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="28" t="n">
+      <c r="A14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="29" t="n">
         <v>2933</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="29" t="n">
         <v>6093</v>
       </c>
-      <c r="D14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>42</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="H14" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="31" t="n">
+      <c r="A15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="32" t="n">
         <v>9605</v>
       </c>
-      <c r="C15" s="31" t="n">
+      <c r="C15" s="32" t="n">
         <v>10335</v>
       </c>
-      <c r="D15" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>45</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="31" t="n">
+      <c r="A16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="32" t="n">
         <v>5714</v>
       </c>
-      <c r="C16" s="31" t="n">
+      <c r="C16" s="32" t="n">
         <v>6413</v>
       </c>
-      <c r="D16" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="26" t="n">
+      <c r="D16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27" t="n">
         <v>70373</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>47</v>
+      <c r="F16" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="H16" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="31" t="n">
+      <c r="A17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="32" t="n">
         <v>11255</v>
       </c>
-      <c r="C17" s="31" t="n">
+      <c r="C17" s="32" t="n">
         <v>12114</v>
       </c>
-      <c r="D17" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="26" t="n">
+      <c r="D17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="n">
         <v>99648</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>49</v>
+      <c r="F17" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="H17" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="31" t="n">
+      <c r="A18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="32" t="n">
         <v>36624</v>
       </c>
-      <c r="C18" s="31" t="n">
+      <c r="C18" s="32" t="n">
         <v>37355</v>
       </c>
-      <c r="D18" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="26" t="n">
+      <c r="D18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27" t="n">
         <v>98600</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>51</v>
+      <c r="F18" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="H18" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="31" t="n">
+      <c r="A19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="32" t="n">
         <v>87860</v>
       </c>
-      <c r="C19" s="31" t="n">
+      <c r="C19" s="32" t="n">
         <v>88347</v>
       </c>
-      <c r="D19" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="26" t="n">
+      <c r="D19" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27" t="n">
         <v>98517</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>53</v>
+      <c r="F19" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="H19" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="31" t="n">
+      <c r="A20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="32" t="n">
         <v>48050</v>
       </c>
-      <c r="C20" s="31" t="n">
+      <c r="C20" s="32" t="n">
         <v>48929</v>
       </c>
-      <c r="D20" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26" t="n">
+      <c r="D20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27" t="n">
         <v>98627</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>55</v>
+      <c r="F20" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="31" t="n">
+      <c r="A21" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="32" t="n">
         <v>74711</v>
       </c>
-      <c r="C21" s="31" t="n">
+      <c r="C21" s="32" t="n">
         <v>74987</v>
       </c>
-      <c r="D21" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="26" t="n">
+      <c r="D21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27" t="n">
         <v>98556</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>57</v>
+      <c r="F21" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H21" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="31" t="n">
+      <c r="A22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="32" t="n">
         <v>72574</v>
       </c>
-      <c r="C22" s="31" t="n">
+      <c r="C22" s="32" t="n">
         <v>73004</v>
       </c>
-      <c r="D22" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="26" t="n">
+      <c r="D22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27" t="n">
         <v>98503</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>59</v>
+      <c r="F22" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="H22" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="31" t="n">
+      <c r="A23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="32" t="n">
         <v>85111</v>
       </c>
-      <c r="C23" s="31" t="n">
+      <c r="C23" s="32" t="n">
         <v>85925</v>
       </c>
-      <c r="D23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="26" t="n">
+      <c r="D23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27" t="n">
         <v>98630</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>61</v>
+      <c r="F23" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>2</v>
@@ -3747,23 +3764,23 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="31" t="n">
+      <c r="A24" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="32" t="n">
         <v>77630</v>
       </c>
-      <c r="C24" s="31" t="n">
+      <c r="C24" s="32" t="n">
         <v>78331</v>
       </c>
-      <c r="D24" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>63</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>2</v>
@@ -3773,207 +3790,207 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="31" t="n">
+      <c r="A25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="32" t="n">
         <v>19403</v>
       </c>
-      <c r="C25" s="31" t="n">
+      <c r="C25" s="32" t="n">
         <v>19403</v>
       </c>
-      <c r="D25" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="26" t="n">
+      <c r="D25" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="n">
         <v>8726</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>65</v>
+      <c r="F25" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="31" t="n">
+      <c r="A26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="32" t="n">
         <v>136468</v>
       </c>
-      <c r="C26" s="31" t="n">
+      <c r="C26" s="32" t="n">
         <v>137925</v>
       </c>
-      <c r="D26" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26" t="n">
+      <c r="D26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="n">
         <v>542003</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>67</v>
+      <c r="F26" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="H26" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="31" t="n">
+      <c r="A27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="32" t="n">
         <v>44647</v>
       </c>
-      <c r="C27" s="31" t="n">
+      <c r="C27" s="32" t="n">
         <v>45015</v>
       </c>
-      <c r="D27" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="26" t="n">
+      <c r="D27" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="n">
         <v>100986</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>69</v>
+      <c r="F27" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="H27" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="31" t="n">
+      <c r="A28" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="32" t="n">
         <v>97510</v>
       </c>
-      <c r="C28" s="31" t="n">
+      <c r="C28" s="32" t="n">
         <v>98106</v>
       </c>
-      <c r="D28" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="26" t="n">
+      <c r="D28" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27" t="n">
         <v>70386</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>71</v>
+      <c r="F28" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="H28" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="31" t="n">
+      <c r="A29" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="32" t="n">
         <v>57703</v>
       </c>
-      <c r="C29" s="31" t="n">
+      <c r="C29" s="32" t="n">
         <v>58214</v>
       </c>
-      <c r="D29" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="26" t="n">
+      <c r="D29" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27" t="n">
         <v>64591</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>73</v>
+      <c r="F29" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H29" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="31" t="n">
+      <c r="A30" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="32" t="n">
         <v>42176</v>
       </c>
-      <c r="C30" s="31" t="n">
+      <c r="C30" s="32" t="n">
         <v>44226</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="26" t="n">
+      <c r="D30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27" t="n">
         <v>87125</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>75</v>
+      <c r="F30" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="H30" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="31" t="n">
+      <c r="A31" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="32" t="n">
         <v>76884</v>
       </c>
-      <c r="C31" s="31" t="n">
+      <c r="C31" s="32" t="n">
         <v>77966</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="26" t="n">
+      <c r="D31" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27" t="n">
         <v>87202</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>77</v>
+      <c r="F31" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="H31" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="31" t="n">
+      <c r="A32" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="32" t="n">
         <v>33589</v>
       </c>
-      <c r="C32" s="31" t="n">
+      <c r="C32" s="32" t="n">
         <v>33736</v>
       </c>
-      <c r="D32" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="26" t="n">
+      <c r="D32" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="27" t="n">
         <v>99475</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>79</v>
+      <c r="F32" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="H32" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="31" t="n">
+      <c r="A33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="32" t="n">
         <v>57599</v>
       </c>
-      <c r="C33" s="31" t="n">
+      <c r="C33" s="32" t="n">
         <v>57948</v>
       </c>
-      <c r="D33" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="26" t="n">
+      <c r="D33" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27" t="n">
         <v>100985</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>81</v>
+      <c r="F33" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>3</v>
@@ -3983,23 +4000,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="31" t="n">
+      <c r="A34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="32" t="n">
         <v>33117</v>
       </c>
-      <c r="C34" s="31" t="n">
+      <c r="C34" s="32" t="n">
         <v>33270</v>
       </c>
-      <c r="D34" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26" t="n">
+      <c r="D34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="27" t="n">
         <v>100839</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>81</v>
+      <c r="F34" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>3</v>
@@ -4009,46 +4026,46 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="31" t="n">
+      <c r="A35" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="32" t="n">
         <v>23719</v>
       </c>
-      <c r="C35" s="31" t="n">
+      <c r="C35" s="32" t="n">
         <v>23879</v>
       </c>
-      <c r="D35" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="26" t="n">
+      <c r="D35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="27" t="n">
         <v>100976</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>83</v>
+      <c r="F35" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="H35" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="31" t="n">
+      <c r="A36" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="32" t="n">
         <v>41446</v>
       </c>
-      <c r="C36" s="31" t="n">
+      <c r="C36" s="32" t="n">
         <v>41693</v>
       </c>
-      <c r="D36" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="26" t="n">
+      <c r="D36" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27" t="n">
         <v>99491</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>85</v>
+      <c r="F36" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>4</v>
@@ -4058,23 +4075,23 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="31" t="n">
+      <c r="A37" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="32" t="n">
         <v>33428</v>
       </c>
-      <c r="C37" s="31" t="n">
+      <c r="C37" s="32" t="n">
         <v>33667</v>
       </c>
-      <c r="D37" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="26" t="n">
+      <c r="D37" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="27" t="n">
         <v>99470</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>85</v>
+      <c r="F37" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>4</v>
@@ -4084,759 +4101,759 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="31" t="n">
+      <c r="A38" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="32" t="n">
         <v>31569</v>
       </c>
-      <c r="C38" s="31" t="n">
+      <c r="C38" s="32" t="n">
         <v>31790</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="26" t="n">
+      <c r="D38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="27" t="n">
         <v>99541</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>87</v>
+      <c r="F38" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="H38" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="31" t="n">
+      <c r="A39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="32" t="n">
         <v>30251</v>
       </c>
-      <c r="C39" s="31" t="n">
+      <c r="C39" s="32" t="n">
         <v>30425</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="26" t="n">
+      <c r="D39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="27" t="n">
         <v>99680</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>89</v>
+      <c r="F39" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="H39" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="31" t="n">
+      <c r="A40" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="32" t="n">
         <v>65834</v>
       </c>
-      <c r="C40" s="31" t="n">
+      <c r="C40" s="32" t="n">
         <v>66211</v>
       </c>
-      <c r="D40" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="26" t="n">
+      <c r="D40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="27" t="n">
         <v>100829</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>91</v>
+      <c r="F40" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="H40" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="31" t="n">
+      <c r="A41" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="32" t="n">
         <v>58563</v>
       </c>
-      <c r="C41" s="31" t="n">
+      <c r="C41" s="32" t="n">
         <v>59360</v>
       </c>
-      <c r="D41" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="26" t="n">
+      <c r="D41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="27" t="n">
         <v>100980</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>93</v>
+      <c r="F41" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="H41" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="31" t="n">
+      <c r="A42" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="32" t="n">
         <v>45813</v>
       </c>
-      <c r="C42" s="31" t="n">
+      <c r="C42" s="32" t="n">
         <v>46381</v>
       </c>
-      <c r="D42" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="23" t="s">
+      <c r="D42" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>96</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="H42" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="31" t="n">
+      <c r="A43" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="32" t="n">
         <v>7741</v>
       </c>
-      <c r="C43" s="31" t="n">
+      <c r="C43" s="32" t="n">
         <v>8102</v>
       </c>
-      <c r="D43" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="23" t="s">
+      <c r="D43" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>99</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="H43" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="31" t="n">
+      <c r="A44" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="32" t="n">
         <v>68493</v>
       </c>
-      <c r="C44" s="31" t="n">
+      <c r="C44" s="32" t="n">
         <v>68610</v>
       </c>
-      <c r="D44" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="26" t="n">
+      <c r="D44" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="27" t="n">
         <v>492735</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>101</v>
+      <c r="F44" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="H44" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="31" t="n">
+      <c r="A45" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="32" t="n">
         <v>3101</v>
       </c>
-      <c r="C45" s="31" t="n">
+      <c r="C45" s="32" t="n">
         <v>3461</v>
       </c>
-      <c r="D45" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="26" t="n">
+      <c r="D45" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="27" t="n">
         <v>77006572</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>103</v>
+      <c r="F45" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="H45" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="31" t="n">
+      <c r="A46" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="32" t="n">
         <v>87385</v>
       </c>
-      <c r="C46" s="31" t="n">
+      <c r="C46" s="32" t="n">
         <v>87889</v>
       </c>
-      <c r="D46" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="26" t="n">
+      <c r="D46" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="27" t="n">
         <v>503440</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>105</v>
+      <c r="F46" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="H46" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="31" t="n">
+      <c r="A47" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="32" t="n">
         <v>54278</v>
       </c>
-      <c r="C47" s="31" t="n">
+      <c r="C47" s="32" t="n">
         <v>54506</v>
       </c>
-      <c r="D47" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="26" t="n">
+      <c r="D47" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="27" t="n">
         <v>492892</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>107</v>
+      <c r="F47" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="H47" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="32" t="n">
+        <v>36310</v>
+      </c>
+      <c r="C48" s="32" t="n">
+        <v>36510</v>
+      </c>
+      <c r="D48" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="27" t="n">
+        <v>503014</v>
+      </c>
+      <c r="F48" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="31" t="n">
-        <v>36310</v>
-      </c>
-      <c r="C48" s="31" t="n">
-        <v>36510</v>
-      </c>
-      <c r="D48" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="26" t="n">
-        <v>503014</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="H48" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="28" t="n">
+      <c r="A49" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="29" t="n">
         <v>35310</v>
       </c>
-      <c r="C49" s="28" t="n">
+      <c r="C49" s="29" t="n">
         <v>35648</v>
       </c>
-      <c r="D49" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="26" t="n">
+      <c r="D49" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="27" t="n">
         <v>88031383</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>110</v>
+      <c r="F49" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="H49" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="31" t="n">
+      <c r="A50" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="32" t="n">
         <v>28910</v>
       </c>
-      <c r="C50" s="31" t="n">
+      <c r="C50" s="32" t="n">
         <v>29084</v>
       </c>
-      <c r="D50" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="26" t="n">
+      <c r="D50" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="27" t="n">
         <v>16596</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>112</v>
+      <c r="F50" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="H50" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="31" t="n">
+      <c r="A51" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="32" t="n">
         <v>41866</v>
       </c>
-      <c r="C51" s="31" t="n">
+      <c r="C51" s="32" t="n">
         <v>42090</v>
       </c>
-      <c r="D51" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="26" t="n">
+      <c r="D51" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="27" t="n">
         <v>88031436</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>114</v>
+      <c r="F51" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="H51" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="39" t="n">
+      <c r="A52" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="40" t="n">
         <v>60247</v>
       </c>
-      <c r="C52" s="39" t="n">
+      <c r="C52" s="40" t="n">
         <v>61210</v>
       </c>
-      <c r="D52" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="26" t="n">
+      <c r="D52" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="27" t="n">
         <v>88031413</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>116</v>
+      <c r="F52" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="H52" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="40" t="n">
+      <c r="A53" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="41" t="n">
         <v>33824</v>
       </c>
-      <c r="C53" s="40" t="n">
+      <c r="C53" s="41" t="n">
         <v>35671</v>
       </c>
-      <c r="D53" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="23" t="s">
+      <c r="D53" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>119</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H53" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="31" t="n">
+      <c r="A54" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="32" t="n">
         <v>38589</v>
       </c>
-      <c r="C54" s="31" t="n">
+      <c r="C54" s="32" t="n">
         <v>38589</v>
       </c>
-      <c r="D54" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="26" t="n">
+      <c r="D54" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="27" t="n">
         <v>4369</v>
       </c>
-      <c r="F54" s="23" t="s">
-        <v>69</v>
+      <c r="F54" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="H54" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="31" t="n">
+      <c r="A55" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="32" t="n">
         <v>36462</v>
       </c>
-      <c r="C55" s="31" t="n">
+      <c r="C55" s="32" t="n">
         <v>36462</v>
       </c>
-      <c r="D55" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="26" t="n">
+      <c r="D55" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="27" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>122</v>
+      <c r="F55" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="H55" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="31" t="n">
+      <c r="A56" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="32" t="n">
         <v>43342</v>
       </c>
-      <c r="C56" s="31" t="n">
+      <c r="C56" s="32" t="n">
         <v>43342</v>
       </c>
-      <c r="D56" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="26" t="n">
+      <c r="D56" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="27" t="n">
         <v>2328</v>
       </c>
-      <c r="F56" s="23" t="s">
-        <v>124</v>
+      <c r="F56" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="H56" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="31" t="n">
+      <c r="A57" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="32" t="n">
         <v>77142</v>
       </c>
-      <c r="C57" s="31" t="n">
+      <c r="C57" s="32" t="n">
         <v>77142</v>
       </c>
-      <c r="D57" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="26" t="n">
+      <c r="D57" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="27" t="n">
         <v>6910</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>93</v>
+      <c r="F57" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="H57" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="31" t="n">
+      <c r="A58" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="32" t="n">
         <v>8272</v>
       </c>
-      <c r="C58" s="31" t="n">
+      <c r="C58" s="32" t="n">
         <v>8401</v>
       </c>
-      <c r="D58" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="D58" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="27" t="s">
         <v>128</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="H58" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="31" t="n">
+      <c r="A59" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="32" t="n">
         <v>24251</v>
       </c>
-      <c r="C59" s="31" t="n">
+      <c r="C59" s="32" t="n">
         <v>24797</v>
       </c>
-      <c r="D59" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="23" t="s">
+      <c r="D59" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>131</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="H59" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="31" t="n">
+      <c r="A60" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="32" t="n">
         <v>7086</v>
       </c>
-      <c r="C60" s="31" t="n">
+      <c r="C60" s="32" t="n">
         <v>7086</v>
       </c>
-      <c r="D60" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="23" t="s">
+      <c r="D60" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="27" t="s">
         <v>134</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="H60" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="31" t="n">
+      <c r="A61" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="32" t="n">
         <v>38041</v>
       </c>
-      <c r="C61" s="31" t="n">
+      <c r="C61" s="32" t="n">
         <v>38232</v>
       </c>
-      <c r="D61" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="23" t="s">
+      <c r="D61" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="27" t="s">
         <v>137</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="H61" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="31" t="n">
+      <c r="A62" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="32" t="n">
         <v>4478</v>
       </c>
-      <c r="C62" s="31" t="n">
+      <c r="C62" s="32" t="n">
         <v>4676</v>
       </c>
-      <c r="D62" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="23" t="s">
+      <c r="D62" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="27" t="s">
         <v>140</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="H62" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="31" t="n">
+      <c r="A63" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="32" t="n">
         <v>22299</v>
       </c>
-      <c r="C63" s="31" t="n">
+      <c r="C63" s="32" t="n">
         <v>22364</v>
       </c>
-      <c r="D63" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="26" t="n">
+      <c r="D63" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="27" t="n">
         <v>530958</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>142</v>
+      <c r="F63" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="H63" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="31" t="n">
+      <c r="A64" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="32" t="n">
         <v>18702</v>
       </c>
-      <c r="C64" s="31" t="n">
+      <c r="C64" s="32" t="n">
         <v>18968</v>
       </c>
-      <c r="D64" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="26" t="n">
+      <c r="D64" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="27" t="n">
         <v>607637</v>
       </c>
-      <c r="F64" s="23" t="s">
-        <v>144</v>
+      <c r="F64" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="H64" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="31" t="n">
+      <c r="A65" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="32" t="n">
         <v>13999</v>
       </c>
-      <c r="C65" s="31" t="n">
+      <c r="C65" s="32" t="n">
         <v>14270</v>
       </c>
-      <c r="D65" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="26" t="n">
+      <c r="D65" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="27" t="n">
         <v>56067</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>146</v>
+      <c r="F65" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="H65" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="42" t="n">
+      <c r="A66" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="43" t="n">
         <v>35460.3</v>
       </c>
-      <c r="C66" s="42" t="n">
+      <c r="C66" s="43" t="n">
         <v>35645.7</v>
       </c>
-      <c r="D66" s="32" t="n">
+      <c r="D66" s="33" t="n">
         <v>40</v>
       </c>
-      <c r="E66" s="26" t="n">
+      <c r="E66" s="27" t="n">
         <v>1535390</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>148</v>
+      <c r="F66" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H66" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="43" t="n">
+      <c r="A67" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="44" t="n">
         <v>1009.9</v>
       </c>
-      <c r="C67" s="43" t="n">
+      <c r="C67" s="44" t="n">
         <v>1193.7</v>
       </c>
-      <c r="D67" s="43" t="n">
+      <c r="D67" s="44" t="n">
         <v>50</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="23" t="s">
+      <c r="E67" s="27" t="s">
         <v>151</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="H67" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="44" t="n">
+      <c r="A68" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="45" t="n">
         <v>820411</v>
       </c>
-      <c r="C68" s="44" t="n">
+      <c r="C68" s="45" t="n">
         <v>821527</v>
       </c>
-      <c r="D68" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="26" t="n">
+      <c r="D68" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="27" t="n">
         <v>399479</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>153</v>
+      <c r="F68" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="H68" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" s="45" t="n">
+      <c r="A69" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="46" t="n">
         <v>52135</v>
       </c>
-      <c r="C69" s="45" t="n">
+      <c r="C69" s="46" t="n">
         <v>52711</v>
       </c>
-      <c r="D69" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="23" t="s">
+      <c r="D69" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="27" t="s">
         <v>156</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="H69" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="31" t="n">
+      <c r="A70" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="32" t="n">
         <v>72885</v>
       </c>
-      <c r="C70" s="31" t="n">
+      <c r="C70" s="32" t="n">
         <v>74072</v>
       </c>
-      <c r="D70" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F70" s="23" t="s">
+      <c r="D70" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="27" t="s">
         <v>159</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>11</v>
@@ -4846,69 +4863,69 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="31" t="n">
+      <c r="A71" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="32" t="n">
         <v>24278</v>
       </c>
-      <c r="C71" s="31" t="n">
+      <c r="C71" s="32" t="n">
         <v>24612</v>
       </c>
-      <c r="D71" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F71" s="23" t="s">
+      <c r="D71" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="27" t="s">
         <v>162</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="H71" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="31" t="n">
+      <c r="A72" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="32" t="n">
         <v>1794</v>
       </c>
-      <c r="C72" s="31" t="n">
+      <c r="C72" s="32" t="n">
         <v>3390</v>
       </c>
-      <c r="D72" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F72" s="23" t="s">
+      <c r="D72" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="27" t="s">
         <v>165</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="H72" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="48" t="n">
+      <c r="A73" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="49" t="n">
         <v>26708</v>
       </c>
-      <c r="C73" s="48" t="n">
+      <c r="C73" s="49" t="n">
         <v>27083.3</v>
       </c>
-      <c r="D73" s="31" t="n">
+      <c r="D73" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="E73" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="23" t="s">
+      <c r="E73" s="27" t="s">
         <v>168</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>5</v>
@@ -4918,23 +4935,23 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="31" t="n">
+      <c r="A74" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="32" t="n">
         <v>92675</v>
       </c>
-      <c r="C74" s="31" t="n">
+      <c r="C74" s="32" t="n">
         <v>97210</v>
       </c>
-      <c r="D74" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="26" t="s">
+      <c r="D74" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>5</v>
@@ -4944,161 +4961,161 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="31" t="n">
+      <c r="A75" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="32" t="n">
         <v>85556</v>
       </c>
-      <c r="C75" s="31" t="n">
+      <c r="C75" s="32" t="n">
         <v>87377</v>
       </c>
-      <c r="D75" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" s="23" t="s">
+      <c r="D75" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="27" t="s">
         <v>172</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="H75" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="31" t="n">
+      <c r="A76" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="32" t="n">
         <v>94848</v>
       </c>
-      <c r="C76" s="31" t="n">
+      <c r="C76" s="32" t="n">
         <v>97508</v>
       </c>
-      <c r="D76" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F76" s="23" t="s">
+      <c r="D76" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="27" t="s">
         <v>175</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="H76" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="40" t="n">
+      <c r="A77" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="41" t="n">
         <v>23114</v>
       </c>
-      <c r="C77" s="40" t="n">
+      <c r="C77" s="41" t="n">
         <v>23470</v>
       </c>
-      <c r="D77" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F77" s="23" t="s">
+      <c r="D77" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="27" t="s">
         <v>178</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="H77" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="40" t="n">
+      <c r="A78" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="41" t="n">
         <v>5578</v>
       </c>
-      <c r="C78" s="40" t="n">
+      <c r="C78" s="41" t="n">
         <v>5838</v>
       </c>
-      <c r="D78" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F78" s="23" t="s">
+      <c r="D78" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>181</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="H78" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B79" s="40" t="n">
+      <c r="A79" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="41" t="n">
         <v>13888</v>
       </c>
-      <c r="C79" s="40" t="n">
+      <c r="C79" s="41" t="n">
         <v>14221</v>
       </c>
-      <c r="D79" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="F79" s="23" t="s">
+      <c r="D79" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="52" t="s">
         <v>184</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="H79" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="B80" s="31" t="n">
+      <c r="A80" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="32" t="n">
         <v>79504</v>
       </c>
-      <c r="C80" s="31" t="n">
+      <c r="C80" s="32" t="n">
         <v>80782</v>
       </c>
-      <c r="D80" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F80" s="23" t="s">
+      <c r="D80" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="27" t="s">
         <v>187</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>188</v>
       </c>
       <c r="H80" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="45" t="n">
+      <c r="A81" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="46" t="n">
         <v>58288</v>
       </c>
-      <c r="C81" s="45" t="n">
+      <c r="C81" s="46" t="n">
         <v>59389</v>
       </c>
-      <c r="D81" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" s="23" t="s">
+      <c r="D81" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="27" t="s">
         <v>190</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>12</v>
@@ -5108,138 +5125,138 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="31" t="n">
+      <c r="A82" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="32" t="n">
         <v>27820</v>
       </c>
-      <c r="C82" s="31" t="n">
+      <c r="C82" s="32" t="n">
         <v>28098</v>
       </c>
-      <c r="D82" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F82" s="23" t="s">
+      <c r="D82" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="27" t="s">
         <v>193</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="H82" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="32" t="n">
+        <v>83087</v>
+      </c>
+      <c r="C83" s="32" t="n">
+        <v>84250</v>
+      </c>
+      <c r="D83" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="B83" s="31" t="n">
-        <v>83087</v>
-      </c>
-      <c r="C83" s="31" t="n">
-        <v>84250</v>
-      </c>
-      <c r="D83" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>193</v>
       </c>
       <c r="H83" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="31" t="n">
+      <c r="A84" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="32" t="n">
         <v>114418</v>
       </c>
-      <c r="C84" s="31" t="n">
+      <c r="C84" s="32" t="n">
         <v>115805</v>
       </c>
-      <c r="D84" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="23" t="s">
+      <c r="D84" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="27" t="s">
         <v>198</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="H84" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" s="53" t="n">
+      <c r="A85" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="54" t="n">
         <v>21274</v>
       </c>
-      <c r="C85" s="53" t="n">
+      <c r="C85" s="54" t="n">
         <v>22346</v>
       </c>
-      <c r="D85" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="26" t="n">
+      <c r="D85" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="27" t="n">
         <v>34431</v>
       </c>
-      <c r="F85" s="23" t="s">
-        <v>200</v>
+      <c r="F85" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="H85" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B86" s="53" t="n">
+      <c r="A86" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="54" t="n">
         <v>68311</v>
       </c>
-      <c r="C86" s="53" t="n">
+      <c r="C86" s="54" t="n">
         <v>69711</v>
       </c>
-      <c r="D86" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F86" s="23" t="s">
+      <c r="D86" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>203</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="H86" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="53" t="n">
+      <c r="A87" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="54" t="n">
         <v>33569</v>
       </c>
-      <c r="C87" s="53" t="n">
+      <c r="C87" s="54" t="n">
         <v>34314</v>
       </c>
-      <c r="D87" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="23" t="s">
+      <c r="D87" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>205</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>11</v>
@@ -5249,31 +5266,31 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B88" s="53" t="n">
+      <c r="A88" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="54" t="n">
         <v>39220</v>
       </c>
-      <c r="C88" s="53" t="n">
+      <c r="C88" s="54" t="n">
         <v>40161</v>
       </c>
-      <c r="D88" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" s="23" t="s">
+      <c r="D88" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="27" t="s">
         <v>208</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>209</v>
       </c>
       <c r="H88" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="54" t="s">
-        <v>209</v>
+      <c r="A89" s="55" t="s">
+        <v>210</v>
       </c>
       <c r="B89" s="8" t="n">
         <v>64381</v>
@@ -5281,238 +5298,238 @@
       <c r="C89" s="8" t="n">
         <v>65566</v>
       </c>
-      <c r="D89" s="13" t="n">
+      <c r="D89" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H89" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="B90" s="53" t="n">
+      <c r="A90" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="54" t="n">
         <v>77822</v>
       </c>
-      <c r="C90" s="53" t="n">
+      <c r="C90" s="54" t="n">
         <v>79459</v>
       </c>
-      <c r="D90" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" s="23" t="s">
+      <c r="D90" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="27" t="s">
         <v>214</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="H90" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B91" s="28" t="n">
+      <c r="A91" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91" s="29" t="n">
         <v>19126</v>
       </c>
-      <c r="C91" s="28" t="n">
+      <c r="C91" s="29" t="n">
         <v>20075</v>
       </c>
-      <c r="D91" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="F91" s="23" t="s">
+      <c r="D91" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="27" t="s">
         <v>217</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="H91" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="53" t="n">
+      <c r="A92" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="54" t="n">
         <v>66869</v>
       </c>
-      <c r="C92" s="53" t="n">
+      <c r="C92" s="54" t="n">
         <v>68157</v>
       </c>
-      <c r="D92" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="F92" s="23" t="s">
+      <c r="D92" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="27" t="s">
         <v>220</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="H92" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="53" t="n">
+      <c r="A93" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="54" t="n">
         <v>39896</v>
       </c>
-      <c r="C93" s="53" t="n">
+      <c r="C93" s="54" t="n">
         <v>40781</v>
       </c>
-      <c r="D93" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F93" s="23" t="s">
+      <c r="D93" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="27" t="s">
         <v>223</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>224</v>
       </c>
       <c r="H93" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" s="31" t="n">
+      <c r="A94" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" s="32" t="n">
         <v>376844</v>
       </c>
-      <c r="C94" s="31" t="n">
+      <c r="C94" s="32" t="n">
         <v>376877</v>
       </c>
-      <c r="D94" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F94" s="23" t="s">
+      <c r="D94" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="27" t="s">
         <v>226</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="H94" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="B95" s="31" t="n">
+      <c r="A95" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="32" t="n">
         <v>51478</v>
       </c>
-      <c r="C95" s="31" t="n">
+      <c r="C95" s="32" t="n">
         <v>51848</v>
       </c>
-      <c r="D95" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F95" s="23" t="s">
+      <c r="D95" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="27" t="s">
         <v>229</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="H95" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B96" s="31" t="n">
+      <c r="A96" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" s="32" t="n">
         <v>19323</v>
       </c>
-      <c r="C96" s="31" t="n">
+      <c r="C96" s="32" t="n">
         <v>19323</v>
       </c>
-      <c r="D96" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="26" t="n">
+      <c r="D96" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="27" t="n">
         <v>282335</v>
       </c>
-      <c r="F96" s="23" t="s">
-        <v>231</v>
+      <c r="F96" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="H96" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="B97" s="31" t="n">
+      <c r="A97" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="31" t="n">
+      <c r="C97" s="32" t="n">
         <v>92</v>
       </c>
-      <c r="D97" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="26" t="s">
+      <c r="D97" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F97" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="F97" s="57" t="s">
-        <v>232</v>
       </c>
       <c r="H97" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B98" s="31" t="n">
+      <c r="A98" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="32" t="n">
         <v>14095</v>
       </c>
-      <c r="C98" s="31" t="n">
+      <c r="C98" s="32" t="n">
         <v>14125</v>
       </c>
-      <c r="D98" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F98" s="57" t="s">
-        <v>232</v>
+      <c r="D98" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>233</v>
       </c>
       <c r="H98" s="11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="58"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="57"/>
-      <c r="H99" s="59"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="58"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16" t="s">
-        <v>236</v>
+      <c r="A100" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="B100" s="8" t="n">
         <v>99925</v>
@@ -5520,22 +5537,25 @@
       <c r="C100" s="8" t="n">
         <v>102199</v>
       </c>
-      <c r="D100" s="13" t="n">
+      <c r="D100" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="H100" s="60" t="n">
         <v>5</v>
       </c>
+      <c r="I100" s="12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B101" s="8" t="n">
         <v>322887</v>
@@ -5543,14 +5563,14 @@
       <c r="C101" s="8" t="n">
         <v>324024</v>
       </c>
-      <c r="D101" s="13" t="n">
+      <c r="D101" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F101" s="62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H101" s="60" t="n">
         <v>5</v>
@@ -5558,7 +5578,7 @@
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B102" s="8" t="n">
         <v>371482</v>
@@ -5566,14 +5586,14 @@
       <c r="C102" s="8" t="n">
         <v>380775</v>
       </c>
-      <c r="D102" s="13" t="n">
+      <c r="D102" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F102" s="62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H102" s="60" t="n">
         <v>5</v>
@@ -5581,7 +5601,7 @@
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B103" s="8" t="n">
         <v>13282</v>
@@ -5589,14 +5609,14 @@
       <c r="C103" s="8" t="n">
         <v>13642</v>
       </c>
-      <c r="D103" s="13" t="n">
+      <c r="D103" s="14" t="n">
         <v>60</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F103" s="62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H103" s="60" t="n">
         <v>5</v>
@@ -5604,7 +5624,7 @@
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="61" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B104" s="8" t="n">
         <v>125160</v>
@@ -5612,14 +5632,14 @@
       <c r="C104" s="8" t="n">
         <v>125493</v>
       </c>
-      <c r="D104" s="13" t="n">
+      <c r="D104" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F104" s="64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H104" s="60" t="n">
         <v>5</v>
@@ -5627,7 +5647,7 @@
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B105" s="8" t="n">
         <v>43423</v>
@@ -5635,14 +5655,14 @@
       <c r="C105" s="8" t="n">
         <v>44139</v>
       </c>
-      <c r="D105" s="13" t="n">
+      <c r="D105" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F105" s="62" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H105" s="60" t="n">
         <v>5</v>
@@ -5650,7 +5670,7 @@
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B106" s="8" t="n">
         <v>153727</v>
@@ -5658,14 +5678,14 @@
       <c r="C106" s="8" t="n">
         <v>153727</v>
       </c>
-      <c r="D106" s="13" t="n">
+      <c r="D106" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="9" t="n">
         <v>5006</v>
       </c>
       <c r="F106" s="62" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H106" s="60" t="n">
         <v>5</v>
@@ -5673,7 +5693,7 @@
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="66" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B107" s="8" t="n">
         <v>258740</v>
@@ -5681,14 +5701,14 @@
       <c r="C107" s="8" t="n">
         <v>260288</v>
       </c>
-      <c r="D107" s="13" t="n">
+      <c r="D107" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F107" s="62" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H107" s="60" t="n">
         <v>5</v>
@@ -5696,7 +5716,7 @@
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B108" s="8" t="n">
         <v>3629</v>
@@ -5704,14 +5724,14 @@
       <c r="C108" s="8" t="n">
         <v>4070</v>
       </c>
-      <c r="D108" s="13" t="n">
+      <c r="D108" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F108" s="62" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H108" s="60" t="n">
         <v>5</v>
@@ -5719,7 +5739,7 @@
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B109" s="8" t="n">
         <v>459553</v>
@@ -5727,14 +5747,14 @@
       <c r="C109" s="8" t="n">
         <v>463191</v>
       </c>
-      <c r="D109" s="13" t="n">
+      <c r="D109" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F109" s="62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H109" s="60" t="n">
         <v>5</v>
@@ -5742,7 +5762,7 @@
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="61" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B110" s="8" t="n">
         <v>541184</v>
@@ -5750,14 +5770,14 @@
       <c r="C110" s="8" t="n">
         <v>548734</v>
       </c>
-      <c r="D110" s="13" t="n">
+      <c r="D110" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F110" s="62" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H110" s="60" t="n">
         <v>5</v>
@@ -5765,7 +5785,7 @@
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B111" s="68" t="n">
         <v>44762</v>
@@ -5777,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F111" s="62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>6</v>
@@ -5791,7 +5811,7 @@
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B112" s="8" t="n">
         <v>3160</v>
@@ -5802,11 +5822,11 @@
       <c r="D112" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E112" s="22" t="n">
+      <c r="E112" s="23" t="n">
         <v>27372</v>
       </c>
       <c r="F112" s="64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>6</v>
@@ -5817,7 +5837,7 @@
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="70" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B113" s="71" t="n">
         <v>91108</v>
@@ -5829,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F113" s="62" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H113" s="60" t="n">
         <v>5</v>
@@ -5840,7 +5860,7 @@
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="61" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B114" s="8" t="n">
         <v>39152</v>
@@ -5848,14 +5868,14 @@
       <c r="C114" s="8" t="n">
         <v>40104</v>
       </c>
-      <c r="D114" s="13" t="n">
+      <c r="D114" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E114" s="9" t="n">
         <v>101522115</v>
       </c>
       <c r="F114" s="62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H114" s="60" t="n">
         <v>5</v>
@@ -5863,7 +5883,7 @@
     </row>
     <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="61" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B115" s="8" t="n">
         <v>19406</v>
@@ -5871,14 +5891,14 @@
       <c r="C115" s="8" t="n">
         <v>19847</v>
       </c>
-      <c r="D115" s="13" t="n">
+      <c r="D115" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F115" s="62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H115" s="60" t="n">
         <v>5</v>
@@ -5886,7 +5906,7 @@
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B116" s="8" t="n">
         <v>26824</v>
@@ -5894,14 +5914,14 @@
       <c r="C116" s="8" t="n">
         <v>27204</v>
       </c>
-      <c r="D116" s="13" t="n">
+      <c r="D116" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F116" s="62" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H116" s="60" t="n">
         <v>5</v>
@@ -5909,7 +5929,7 @@
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B117" s="8" t="n">
         <v>248225</v>
@@ -5917,14 +5937,14 @@
       <c r="C117" s="8" t="n">
         <v>249845</v>
       </c>
-      <c r="D117" s="13" t="n">
+      <c r="D117" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F117" s="62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H117" s="60" t="n">
         <v>5</v>
@@ -5932,7 +5952,7 @@
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="61" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B118" s="8" t="n">
         <v>399994</v>
@@ -5940,14 +5960,14 @@
       <c r="C118" s="8" t="n">
         <v>399994</v>
       </c>
-      <c r="D118" s="13" t="n">
+      <c r="D118" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F118" s="62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H118" s="60" t="n">
         <v>5</v>
@@ -5955,7 +5975,7 @@
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="61" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B119" s="8" t="n">
         <v>80564</v>
@@ -5963,14 +5983,14 @@
       <c r="C119" s="8" t="n">
         <v>80795</v>
       </c>
-      <c r="D119" s="13" t="n">
+      <c r="D119" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F119" s="62" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H119" s="60" t="n">
         <v>5</v>
@@ -5978,7 +5998,7 @@
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="61" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B120" s="8" t="n">
         <v>200409</v>
@@ -5986,14 +6006,14 @@
       <c r="C120" s="8" t="n">
         <v>201005</v>
       </c>
-      <c r="D120" s="13" t="n">
+      <c r="D120" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F120" s="62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H120" s="60" t="n">
         <v>5</v>
@@ -6001,7 +6021,7 @@
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B121" s="8" t="n">
         <v>346494</v>
@@ -6009,14 +6029,14 @@
       <c r="C121" s="8" t="n">
         <v>347561</v>
       </c>
-      <c r="D121" s="13" t="n">
+      <c r="D121" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H121" s="60" t="n">
         <v>5</v>
@@ -6024,7 +6044,7 @@
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="61" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B122" s="8" t="n">
         <v>285966</v>
@@ -6032,14 +6052,14 @@
       <c r="C122" s="8" t="n">
         <v>288106</v>
       </c>
-      <c r="D122" s="13" t="n">
+      <c r="D122" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F122" s="62" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>13</v>
@@ -6050,7 +6070,7 @@
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B123" s="8" t="n">
         <v>392079</v>
@@ -6058,14 +6078,14 @@
       <c r="C123" s="8" t="n">
         <v>392079</v>
       </c>
-      <c r="D123" s="13" t="n">
+      <c r="D123" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="9" t="n">
         <v>806</v>
       </c>
       <c r="F123" s="62" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H123" s="60" t="n">
         <v>5</v>
@@ -6073,7 +6093,7 @@
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="61" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B124" s="8" t="n">
         <v>128587</v>
@@ -6081,14 +6101,14 @@
       <c r="C124" s="8" t="n">
         <v>131733</v>
       </c>
-      <c r="D124" s="13" t="n">
+      <c r="D124" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F124" s="62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H124" s="60" t="n">
         <v>5</v>
@@ -6096,7 +6116,7 @@
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="61" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B125" s="8" t="n">
         <v>29110</v>
@@ -6104,14 +6124,14 @@
       <c r="C125" s="8" t="n">
         <v>29110</v>
       </c>
-      <c r="D125" s="13" t="n">
+      <c r="D125" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="9" t="n">
         <v>2125</v>
       </c>
       <c r="F125" s="62" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H125" s="60" t="n">
         <v>5</v>
@@ -6119,7 +6139,7 @@
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B126" s="8" t="n">
         <v>86232</v>
@@ -6127,14 +6147,14 @@
       <c r="C126" s="8" t="n">
         <v>86552</v>
       </c>
-      <c r="D126" s="13" t="n">
+      <c r="D126" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F126" s="62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H126" s="60" t="n">
         <v>5</v>
@@ -6142,7 +6162,7 @@
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="61" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B127" s="8" t="n">
         <v>292491</v>
@@ -6150,14 +6170,14 @@
       <c r="C127" s="8" t="n">
         <v>293507</v>
       </c>
-      <c r="D127" s="13" t="n">
+      <c r="D127" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F127" s="62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H127" s="60" t="n">
         <v>5</v>
@@ -6165,7 +6185,7 @@
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="61" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B128" s="8" t="n">
         <v>21197</v>
@@ -6173,14 +6193,14 @@
       <c r="C128" s="8" t="n">
         <v>22032</v>
       </c>
-      <c r="D128" s="13" t="n">
+      <c r="D128" s="14" t="n">
         <v>20</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F128" s="62" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H128" s="60" t="n">
         <v>5</v>
@@ -6188,7 +6208,7 @@
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="61" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B129" s="8" t="n">
         <v>255740</v>
@@ -6196,14 +6216,14 @@
       <c r="C129" s="8" t="n">
         <v>265396</v>
       </c>
-      <c r="D129" s="13" t="n">
+      <c r="D129" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F129" s="62" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H129" s="60" t="n">
         <v>5</v>
@@ -6211,7 +6231,7 @@
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="63" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B130" s="8" t="n">
         <v>570260</v>
@@ -6219,22 +6239,22 @@
       <c r="C130" s="8" t="n">
         <v>574318</v>
       </c>
-      <c r="D130" s="13" t="n">
+      <c r="D130" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E130" s="9" t="n">
         <v>35821</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H130" s="60" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="s">
-        <v>188</v>
+      <c r="A131" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="B131" s="8" t="n">
         <v>29360</v>
@@ -6242,14 +6262,14 @@
       <c r="C131" s="8" t="n">
         <v>30330</v>
       </c>
-      <c r="D131" s="13" t="n">
+      <c r="D131" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E131" s="9" t="n">
         <v>103473542</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>12</v>
@@ -6260,7 +6280,7 @@
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B132" s="8" t="n">
         <v>25329</v>
@@ -6268,14 +6288,14 @@
       <c r="C132" s="8" t="n">
         <v>26099</v>
       </c>
-      <c r="D132" s="13" t="n">
+      <c r="D132" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>13</v>
@@ -6286,7 +6306,7 @@
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="63" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B133" s="8" t="n">
         <v>43899</v>
@@ -6294,14 +6314,14 @@
       <c r="C133" s="8" t="n">
         <v>45043</v>
       </c>
-      <c r="D133" s="13" t="n">
+      <c r="D133" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H133" s="60" t="n">
         <v>5</v>
@@ -6309,7 +6329,7 @@
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="73" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B134" s="8" t="n">
         <v>59424</v>
@@ -6317,14 +6337,14 @@
       <c r="C134" s="8" t="n">
         <v>59424</v>
       </c>
-      <c r="D134" s="13" t="n">
+      <c r="D134" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="9" t="n">
         <v>4616</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H134" s="60" t="n">
         <v>5</v>
@@ -6332,7 +6352,7 @@
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="73" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B135" s="8" t="n">
         <v>67625</v>
@@ -6340,14 +6360,14 @@
       <c r="C135" s="8" t="n">
         <v>69465.54</v>
       </c>
-      <c r="D135" s="13" t="n">
+      <c r="D135" s="14" t="n">
         <v>20</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H135" s="60" t="n">
         <v>5</v>
@@ -6355,7 +6375,7 @@
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="73" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B136" s="8" t="n">
         <v>61334</v>
@@ -6363,14 +6383,14 @@
       <c r="C136" s="8" t="n">
         <v>67645</v>
       </c>
-      <c r="D136" s="13" t="n">
+      <c r="D136" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>14</v>
@@ -6380,8 +6400,8 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16" t="s">
-        <v>333</v>
+      <c r="A137" s="17" t="s">
+        <v>335</v>
       </c>
       <c r="B137" s="8" t="n">
         <v>16572</v>
@@ -6389,14 +6409,14 @@
       <c r="C137" s="8" t="n">
         <v>17252</v>
       </c>
-      <c r="D137" s="13" t="n">
+      <c r="D137" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H137" s="60" t="n">
         <v>5</v>
@@ -6404,7 +6424,7 @@
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="73" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B138" s="8" t="n">
         <v>11994</v>
@@ -6412,14 +6432,14 @@
       <c r="C138" s="8" t="n">
         <v>13414</v>
       </c>
-      <c r="D138" s="13" t="n">
+      <c r="D138" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>14</v>
@@ -6432,236 +6452,239 @@
       <c r="A139" s="74"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="13"/>
+      <c r="D139" s="14"/>
       <c r="E139" s="9"/>
       <c r="F139" s="10"/>
-      <c r="H139" s="59"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B140" s="28" t="n">
+      <c r="A140" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B140" s="29" t="n">
         <v>15327</v>
       </c>
-      <c r="C140" s="28" t="n">
+      <c r="C140" s="29" t="n">
         <v>15585</v>
       </c>
-      <c r="D140" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" s="26" t="n">
+      <c r="D140" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="27" t="n">
         <v>2262538</v>
       </c>
-      <c r="F140" s="23" t="s">
-        <v>338</v>
+      <c r="F140" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="H140" s="75" t="n">
         <v>6</v>
       </c>
+      <c r="I140" s="12" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B141" s="28" t="n">
+      <c r="A141" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" s="29" t="n">
         <v>45710</v>
       </c>
-      <c r="C141" s="28" t="n">
+      <c r="C141" s="29" t="n">
         <v>45710</v>
       </c>
-      <c r="D141" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="26" t="n">
+      <c r="D141" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="27" t="n">
         <v>5521045</v>
       </c>
-      <c r="F141" s="23" t="s">
-        <v>340</v>
+      <c r="F141" s="24" t="s">
+        <v>343</v>
       </c>
       <c r="H141" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="B142" s="28" t="n">
+      <c r="A142" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B142" s="29" t="n">
         <v>37314</v>
       </c>
-      <c r="C142" s="28" t="n">
+      <c r="C142" s="29" t="n">
         <v>37727</v>
       </c>
-      <c r="D142" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="26" t="n">
+      <c r="D142" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="27" t="n">
         <v>2261340</v>
       </c>
-      <c r="F142" s="23" t="s">
-        <v>342</v>
+      <c r="F142" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="H142" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B143" s="28" t="n">
+      <c r="A143" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" s="29" t="n">
         <v>46742</v>
       </c>
-      <c r="C143" s="28" t="n">
+      <c r="C143" s="29" t="n">
         <v>47544</v>
       </c>
-      <c r="D143" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="26" t="n">
+      <c r="D143" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="27" t="n">
         <v>5510929</v>
       </c>
-      <c r="F143" s="23" t="s">
-        <v>344</v>
+      <c r="F143" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="H143" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B144" s="28" t="n">
+      <c r="A144" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B144" s="29" t="n">
         <v>69463</v>
       </c>
-      <c r="C144" s="28" t="n">
+      <c r="C144" s="29" t="n">
         <v>69881</v>
       </c>
-      <c r="D144" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" s="26" t="n">
+      <c r="D144" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="27" t="n">
         <v>5511505</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>346</v>
+      <c r="F144" s="24" t="s">
+        <v>349</v>
       </c>
       <c r="H144" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="B145" s="28" t="n">
+      <c r="A145" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B145" s="29" t="n">
         <v>39393</v>
       </c>
-      <c r="C145" s="28" t="n">
+      <c r="C145" s="29" t="n">
         <v>39617</v>
       </c>
-      <c r="D145" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="26" t="n">
+      <c r="D145" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="27" t="n">
         <v>5510311</v>
       </c>
-      <c r="F145" s="23" t="s">
-        <v>348</v>
+      <c r="F145" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="H145" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="B146" s="28" t="n">
+      <c r="A146" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" s="29" t="n">
         <v>50086</v>
       </c>
-      <c r="C146" s="28" t="n">
+      <c r="C146" s="29" t="n">
         <v>50405</v>
       </c>
-      <c r="D146" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="26" t="n">
+      <c r="D146" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="27" t="n">
         <v>5510177</v>
       </c>
-      <c r="F146" s="23" t="s">
-        <v>350</v>
+      <c r="F146" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="H146" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B147" s="28" t="n">
+      <c r="A147" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B147" s="29" t="n">
         <v>90103</v>
       </c>
-      <c r="C147" s="28" t="n">
+      <c r="C147" s="29" t="n">
         <v>90467</v>
       </c>
-      <c r="D147" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" s="26" t="n">
+      <c r="D147" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" s="27" t="n">
         <v>2262535</v>
       </c>
-      <c r="F147" s="23" t="s">
-        <v>352</v>
+      <c r="F147" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="H147" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B148" s="28" t="n">
+      <c r="A148" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B148" s="29" t="n">
         <v>46428</v>
       </c>
-      <c r="C148" s="28" t="n">
+      <c r="C148" s="29" t="n">
         <v>47388</v>
       </c>
-      <c r="D148" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="F148" s="23" t="s">
-        <v>355</v>
+      <c r="D148" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="H148" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="B149" s="28" t="n">
+      <c r="A149" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B149" s="29" t="n">
         <v>296809</v>
       </c>
-      <c r="C149" s="28" t="n">
+      <c r="C149" s="29" t="n">
         <v>309092</v>
       </c>
-      <c r="D149" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="F149" s="23" t="s">
-        <v>358</v>
+      <c r="D149" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>7</v>
@@ -6671,8 +6694,8 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="47" t="s">
-        <v>356</v>
+      <c r="A150" s="48" t="s">
+        <v>359</v>
       </c>
       <c r="B150" s="76" t="n">
         <v>304</v>
@@ -6680,14 +6703,14 @@
       <c r="C150" s="76" t="n">
         <v>666</v>
       </c>
-      <c r="D150" s="43" t="n">
+      <c r="D150" s="44" t="n">
         <v>1</v>
       </c>
       <c r="E150" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="F150" s="23" t="s">
-        <v>358</v>
+        <v>362</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>7</v>
@@ -6697,8 +6720,8 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="47" t="s">
-        <v>356</v>
+      <c r="A151" s="48" t="s">
+        <v>359</v>
       </c>
       <c r="B151" s="76" t="n">
         <v>283</v>
@@ -6706,14 +6729,14 @@
       <c r="C151" s="76" t="n">
         <v>311</v>
       </c>
-      <c r="D151" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>358</v>
+      <c r="D151" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>7</v>
@@ -6723,8 +6746,8 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="35" t="s">
-        <v>361</v>
+      <c r="A152" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="B152" s="76" t="n">
         <v>28244</v>
@@ -6732,22 +6755,22 @@
       <c r="C152" s="76" t="n">
         <v>28648</v>
       </c>
-      <c r="D152" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" s="26" t="n">
+      <c r="D152" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="27" t="n">
         <v>5510402</v>
       </c>
-      <c r="F152" s="23" t="s">
-        <v>362</v>
+      <c r="F152" s="24" t="s">
+        <v>365</v>
       </c>
       <c r="H152" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="35" t="s">
-        <v>363</v>
+      <c r="A153" s="36" t="s">
+        <v>366</v>
       </c>
       <c r="B153" s="76" t="n">
         <v>38322</v>
@@ -6755,22 +6778,22 @@
       <c r="C153" s="76" t="n">
         <v>38683</v>
       </c>
-      <c r="D153" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="26" t="n">
+      <c r="D153" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="27" t="n">
         <v>5509256</v>
       </c>
-      <c r="F153" s="23" t="s">
-        <v>364</v>
+      <c r="F153" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="H153" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="35" t="s">
-        <v>365</v>
+      <c r="A154" s="36" t="s">
+        <v>368</v>
       </c>
       <c r="B154" s="76" t="n">
         <v>34057</v>
@@ -6778,22 +6801,22 @@
       <c r="C154" s="76" t="n">
         <v>34671</v>
       </c>
-      <c r="D154" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" s="26" t="n">
+      <c r="D154" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" s="27" t="n">
         <v>5509265</v>
       </c>
-      <c r="F154" s="23" t="s">
-        <v>366</v>
+      <c r="F154" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="H154" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="35" t="s">
-        <v>367</v>
+      <c r="A155" s="36" t="s">
+        <v>370</v>
       </c>
       <c r="B155" s="76" t="n">
         <v>23350</v>
@@ -6801,22 +6824,22 @@
       <c r="C155" s="76" t="n">
         <v>23641</v>
       </c>
-      <c r="D155" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="26" t="n">
+      <c r="D155" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="27" t="n">
         <v>5518342</v>
       </c>
-      <c r="F155" s="23" t="s">
-        <v>368</v>
+      <c r="F155" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="H155" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="35" t="s">
-        <v>369</v>
+      <c r="A156" s="36" t="s">
+        <v>372</v>
       </c>
       <c r="B156" s="76" t="n">
         <v>25976</v>
@@ -6824,22 +6847,22 @@
       <c r="C156" s="76" t="n">
         <v>26310</v>
       </c>
-      <c r="D156" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" s="26" t="n">
+      <c r="D156" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="27" t="n">
         <v>2262004</v>
       </c>
-      <c r="F156" s="23" t="s">
-        <v>370</v>
+      <c r="F156" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="H156" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="35" t="s">
-        <v>371</v>
+      <c r="A157" s="36" t="s">
+        <v>374</v>
       </c>
       <c r="B157" s="76" t="n">
         <v>23356</v>
@@ -6847,22 +6870,22 @@
       <c r="C157" s="76" t="n">
         <v>23771</v>
       </c>
-      <c r="D157" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" s="26" t="n">
+      <c r="D157" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="27" t="n">
         <v>2262573</v>
       </c>
-      <c r="F157" s="23" t="s">
-        <v>372</v>
+      <c r="F157" s="24" t="s">
+        <v>375</v>
       </c>
       <c r="H157" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="35" t="s">
-        <v>373</v>
+      <c r="A158" s="36" t="s">
+        <v>376</v>
       </c>
       <c r="B158" s="76" t="n">
         <v>62872</v>
@@ -6870,22 +6893,22 @@
       <c r="C158" s="76" t="n">
         <v>63384</v>
       </c>
-      <c r="D158" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" s="26" t="n">
+      <c r="D158" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="27" t="n">
         <v>2262504</v>
       </c>
-      <c r="F158" s="23" t="s">
-        <v>374</v>
+      <c r="F158" s="24" t="s">
+        <v>377</v>
       </c>
       <c r="H158" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="35" t="s">
-        <v>375</v>
+      <c r="A159" s="36" t="s">
+        <v>378</v>
       </c>
       <c r="B159" s="76" t="n">
         <v>15065</v>
@@ -6893,14 +6916,14 @@
       <c r="C159" s="76" t="n">
         <v>15247</v>
       </c>
-      <c r="D159" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" s="26" t="n">
+      <c r="D159" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="27" t="n">
         <v>282333</v>
       </c>
-      <c r="F159" s="23" t="s">
-        <v>376</v>
+      <c r="F159" s="24" t="s">
+        <v>379</v>
       </c>
       <c r="H159" s="75" t="n">
         <v>6</v>
@@ -6908,7 +6931,7 @@
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="78" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B160" s="79" t="n">
         <v>50297</v>
@@ -6916,22 +6939,22 @@
       <c r="C160" s="79" t="n">
         <v>50865</v>
       </c>
-      <c r="D160" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" s="26" t="n">
+      <c r="D160" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="27" t="n">
         <v>2261380</v>
       </c>
-      <c r="F160" s="23" t="s">
-        <v>378</v>
+      <c r="F160" s="24" t="s">
+        <v>381</v>
       </c>
       <c r="H160" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="35" t="s">
-        <v>379</v>
+      <c r="A161" s="36" t="s">
+        <v>382</v>
       </c>
       <c r="B161" s="76" t="n">
         <v>42066</v>
@@ -6939,22 +6962,22 @@
       <c r="C161" s="76" t="n">
         <v>42066</v>
       </c>
-      <c r="D161" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" s="26" t="n">
+      <c r="D161" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="27" t="n">
         <v>3263</v>
       </c>
-      <c r="F161" s="23" t="s">
-        <v>380</v>
+      <c r="F161" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="H161" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="35" t="s">
-        <v>381</v>
+      <c r="A162" s="36" t="s">
+        <v>384</v>
       </c>
       <c r="B162" s="76" t="n">
         <v>802</v>
@@ -6962,22 +6985,22 @@
       <c r="C162" s="76" t="n">
         <v>911</v>
       </c>
-      <c r="D162" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="F162" s="23" t="s">
-        <v>383</v>
+      <c r="D162" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F162" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="H162" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="35" t="s">
-        <v>384</v>
+      <c r="A163" s="36" t="s">
+        <v>387</v>
       </c>
       <c r="B163" s="76" t="n">
         <v>10472</v>
@@ -6985,22 +7008,22 @@
       <c r="C163" s="76" t="n">
         <v>10963</v>
       </c>
-      <c r="D163" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="F163" s="23" t="s">
-        <v>386</v>
+      <c r="D163" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="H163" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="35" t="s">
-        <v>387</v>
+      <c r="A164" s="36" t="s">
+        <v>390</v>
       </c>
       <c r="B164" s="76" t="n">
         <v>109812</v>
@@ -7008,22 +7031,22 @@
       <c r="C164" s="76" t="n">
         <v>110446</v>
       </c>
-      <c r="D164" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="F164" s="23" t="s">
-        <v>389</v>
+      <c r="D164" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>392</v>
       </c>
       <c r="H164" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="35" t="s">
-        <v>390</v>
+      <c r="A165" s="36" t="s">
+        <v>393</v>
       </c>
       <c r="B165" s="76" t="n">
         <v>257665</v>
@@ -7031,22 +7054,22 @@
       <c r="C165" s="76" t="n">
         <v>259728</v>
       </c>
-      <c r="D165" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="F165" s="23" t="s">
-        <v>392</v>
+      <c r="D165" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>395</v>
       </c>
       <c r="H165" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="35" t="s">
-        <v>393</v>
+      <c r="A166" s="36" t="s">
+        <v>396</v>
       </c>
       <c r="B166" s="76" t="n">
         <v>70329</v>
@@ -7054,22 +7077,22 @@
       <c r="C166" s="76" t="n">
         <v>71938</v>
       </c>
-      <c r="D166" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E166" s="26" t="n">
+      <c r="D166" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="27" t="n">
         <v>2261167</v>
       </c>
-      <c r="F166" s="23" t="s">
-        <v>394</v>
+      <c r="F166" s="24" t="s">
+        <v>397</v>
       </c>
       <c r="H166" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="35" t="s">
-        <v>395</v>
+      <c r="A167" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="B167" s="76" t="n">
         <v>4202</v>
@@ -7077,22 +7100,22 @@
       <c r="C167" s="76" t="n">
         <v>4706</v>
       </c>
-      <c r="D167" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E167" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="F167" s="23" t="s">
-        <v>397</v>
+      <c r="D167" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>400</v>
       </c>
       <c r="H167" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="35" t="s">
-        <v>398</v>
+      <c r="A168" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="B168" s="76" t="n">
         <v>13858</v>
@@ -7100,22 +7123,22 @@
       <c r="C168" s="76" t="n">
         <v>13911</v>
       </c>
-      <c r="D168" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" s="26" t="n">
+      <c r="D168" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="27" t="n">
         <v>370293</v>
       </c>
-      <c r="F168" s="23" t="s">
-        <v>399</v>
+      <c r="F168" s="24" t="s">
+        <v>402</v>
       </c>
       <c r="H168" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="35" t="s">
-        <v>400</v>
+      <c r="A169" s="36" t="s">
+        <v>403</v>
       </c>
       <c r="B169" s="76" t="n">
         <v>6544</v>
@@ -7123,83 +7146,83 @@
       <c r="C169" s="76" t="n">
         <v>6544</v>
       </c>
-      <c r="D169" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" s="26" t="n">
+      <c r="D169" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="27" t="n">
         <v>1940</v>
       </c>
-      <c r="F169" s="23" t="s">
-        <v>401</v>
+      <c r="F169" s="24" t="s">
+        <v>404</v>
       </c>
       <c r="H169" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="B170" s="31" t="n">
+      <c r="A170" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" s="32" t="n">
         <v>18329</v>
       </c>
-      <c r="C170" s="31" t="n">
+      <c r="C170" s="32" t="n">
         <v>18764</v>
       </c>
-      <c r="D170" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="F170" s="23" t="s">
-        <v>404</v>
+      <c r="D170" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>407</v>
       </c>
       <c r="H170" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="B171" s="43" t="n">
+      <c r="A171" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="B171" s="44" t="n">
         <v>4459</v>
       </c>
-      <c r="C171" s="43" t="n">
+      <c r="C171" s="44" t="n">
         <v>4560</v>
       </c>
-      <c r="D171" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="F171" s="23" t="s">
-        <v>407</v>
+      <c r="D171" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="H171" s="75" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="B172" s="31" t="n">
+      <c r="A172" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B172" s="32" t="n">
         <v>9446</v>
       </c>
-      <c r="C172" s="31" t="n">
+      <c r="C172" s="32" t="n">
         <v>9564</v>
       </c>
-      <c r="D172" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="F172" s="23" t="s">
-        <v>410</v>
+      <c r="D172" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>413</v>
       </c>
       <c r="H172" s="75" t="n">
         <v>6</v>
@@ -7207,39 +7230,42 @@
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="80"/>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="23"/>
-      <c r="H173" s="59"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="24"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="78" t="s">
-        <v>411</v>
-      </c>
-      <c r="B174" s="43" t="n">
+        <v>414</v>
+      </c>
+      <c r="B174" s="44" t="n">
         <v>46998</v>
       </c>
-      <c r="C174" s="43" t="n">
+      <c r="C174" s="44" t="n">
         <v>49509</v>
       </c>
-      <c r="D174" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="F174" s="23" t="s">
-        <v>413</v>
+      <c r="D174" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="H174" s="81" t="n">
         <v>7</v>
       </c>
+      <c r="I174" s="12" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="82" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B175" s="83" t="n">
         <v>50728</v>
@@ -7250,11 +7276,11 @@
       <c r="D175" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="E175" s="22" t="n">
+      <c r="E175" s="23" t="n">
         <v>3855</v>
       </c>
-      <c r="F175" s="23" t="s">
-        <v>415</v>
+      <c r="F175" s="24" t="s">
+        <v>419</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>8</v>
@@ -7265,7 +7291,7 @@
     </row>
     <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="82" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B176" s="83" t="n">
         <v>116620</v>
@@ -7276,11 +7302,11 @@
       <c r="D176" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="E176" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>415</v>
+      <c r="E176" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>419</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>8</v>
@@ -7290,115 +7316,115 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="B177" s="43" t="n">
+      <c r="A177" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B177" s="44" t="n">
         <v>15997</v>
       </c>
-      <c r="C177" s="43" t="n">
+      <c r="C177" s="44" t="n">
         <v>16157</v>
       </c>
-      <c r="D177" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F177" s="23" t="s">
-        <v>419</v>
+      <c r="D177" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>423</v>
       </c>
       <c r="H177" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="B178" s="43" t="n">
+      <c r="A178" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B178" s="44" t="n">
         <v>18556</v>
       </c>
-      <c r="C178" s="43" t="n">
+      <c r="C178" s="44" t="n">
         <v>18828</v>
       </c>
-      <c r="D178" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E178" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F178" s="23" t="s">
-        <v>422</v>
+      <c r="D178" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>426</v>
       </c>
       <c r="H178" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="B179" s="43" t="n">
+      <c r="A179" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B179" s="44" t="n">
         <v>18396</v>
       </c>
-      <c r="C179" s="43" t="n">
+      <c r="C179" s="44" t="n">
         <v>18641</v>
       </c>
-      <c r="D179" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="F179" s="23" t="s">
-        <v>425</v>
+      <c r="D179" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>429</v>
       </c>
       <c r="H179" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="B180" s="43" t="n">
+      <c r="A180" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B180" s="44" t="n">
         <v>21813</v>
       </c>
-      <c r="C180" s="43" t="n">
+      <c r="C180" s="44" t="n">
         <v>22091</v>
       </c>
-      <c r="D180" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="F180" s="23" t="s">
-        <v>428</v>
+      <c r="D180" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="H180" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="B181" s="43" t="n">
+      <c r="A181" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B181" s="44" t="n">
         <v>21184</v>
       </c>
-      <c r="C181" s="43" t="n">
+      <c r="C181" s="44" t="n">
         <v>21385</v>
       </c>
-      <c r="D181" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="F181" s="23" t="s">
-        <v>431</v>
+      <c r="D181" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="H181" s="81" t="n">
         <v>7</v>
@@ -7406,22 +7432,22 @@
     </row>
     <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="84" t="s">
-        <v>432</v>
-      </c>
-      <c r="B182" s="43" t="n">
+        <v>436</v>
+      </c>
+      <c r="B182" s="44" t="n">
         <v>38950</v>
       </c>
-      <c r="C182" s="43" t="n">
+      <c r="C182" s="44" t="n">
         <v>38950</v>
       </c>
-      <c r="D182" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>434</v>
+      <c r="D182" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>9</v>
@@ -7432,22 +7458,22 @@
     </row>
     <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="84" t="s">
-        <v>432</v>
-      </c>
-      <c r="B183" s="43" t="n">
+        <v>436</v>
+      </c>
+      <c r="B183" s="44" t="n">
         <v>9890</v>
       </c>
-      <c r="C183" s="43" t="n">
+      <c r="C183" s="44" t="n">
         <v>10045</v>
       </c>
-      <c r="D183" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E183" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="F183" s="23" t="s">
-        <v>436</v>
+      <c r="D183" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>440</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>9</v>
@@ -7457,238 +7483,238 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="B184" s="43" t="n">
+      <c r="A184" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="B184" s="44" t="n">
         <v>90944</v>
       </c>
-      <c r="C184" s="43" t="n">
+      <c r="C184" s="44" t="n">
         <v>92147</v>
       </c>
-      <c r="D184" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="F184" s="23" t="s">
-        <v>439</v>
+      <c r="D184" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>443</v>
       </c>
       <c r="H184" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="B185" s="43" t="n">
+      <c r="A185" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="B185" s="44" t="n">
         <v>42368</v>
       </c>
-      <c r="C185" s="43" t="n">
+      <c r="C185" s="44" t="n">
         <v>42900</v>
       </c>
-      <c r="D185" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E185" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F185" s="23" t="s">
-        <v>442</v>
+      <c r="D185" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>446</v>
       </c>
       <c r="H185" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="B186" s="43" t="n">
+      <c r="A186" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B186" s="44" t="n">
         <v>9525</v>
       </c>
-      <c r="C186" s="43" t="n">
+      <c r="C186" s="44" t="n">
         <v>9640</v>
       </c>
-      <c r="D186" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="F186" s="23" t="s">
-        <v>445</v>
+      <c r="D186" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>449</v>
       </c>
       <c r="H186" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="B187" s="43" t="n">
+      <c r="A187" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B187" s="44" t="n">
         <v>15474</v>
       </c>
-      <c r="C187" s="43" t="n">
+      <c r="C187" s="44" t="n">
         <v>15474</v>
       </c>
-      <c r="D187" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="F187" s="23" t="s">
-        <v>448</v>
+      <c r="D187" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="H187" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="B188" s="43" t="n">
+      <c r="A188" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B188" s="44" t="n">
         <v>24401</v>
       </c>
-      <c r="C188" s="43" t="n">
+      <c r="C188" s="44" t="n">
         <v>24937</v>
       </c>
-      <c r="D188" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="F188" s="23" t="s">
-        <v>451</v>
+      <c r="D188" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="F188" s="24" t="s">
+        <v>455</v>
       </c>
       <c r="H188" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="B189" s="43" t="n">
+      <c r="A189" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="B189" s="44" t="n">
         <v>13128</v>
       </c>
-      <c r="C189" s="43" t="n">
+      <c r="C189" s="44" t="n">
         <v>14319</v>
       </c>
-      <c r="D189" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="F189" s="23" t="s">
-        <v>454</v>
+      <c r="D189" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="H189" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="B190" s="43" t="n">
+      <c r="A190" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B190" s="44" t="n">
         <v>17071</v>
       </c>
-      <c r="C190" s="43" t="n">
+      <c r="C190" s="44" t="n">
         <v>17358</v>
       </c>
-      <c r="D190" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="F190" s="23" t="s">
-        <v>457</v>
+      <c r="D190" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="F190" s="24" t="s">
+        <v>461</v>
       </c>
       <c r="H190" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="B191" s="43" t="n">
+      <c r="A191" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="B191" s="44" t="n">
         <v>45722</v>
       </c>
-      <c r="C191" s="43" t="n">
+      <c r="C191" s="44" t="n">
         <v>46075</v>
       </c>
-      <c r="D191" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="F191" s="23" t="s">
-        <v>460</v>
+      <c r="D191" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>464</v>
       </c>
       <c r="H191" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="B192" s="43" t="n">
+      <c r="A192" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B192" s="44" t="n">
         <v>24377</v>
       </c>
-      <c r="C192" s="43" t="n">
+      <c r="C192" s="44" t="n">
         <v>24773</v>
       </c>
-      <c r="D192" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E192" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="F192" s="23" t="s">
-        <v>463</v>
+      <c r="D192" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>467</v>
       </c>
       <c r="H192" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="B193" s="43" t="n">
+      <c r="A193" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="B193" s="44" t="n">
         <v>35747</v>
       </c>
-      <c r="C193" s="43" t="n">
+      <c r="C193" s="44" t="n">
         <v>36173</v>
       </c>
-      <c r="D193" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="F193" s="23" t="s">
-        <v>466</v>
+      <c r="D193" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>470</v>
       </c>
       <c r="H193" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="35" t="s">
-        <v>467</v>
+      <c r="A194" s="36" t="s">
+        <v>471</v>
       </c>
       <c r="B194" s="85" t="n">
         <v>66445</v>
@@ -7696,244 +7722,244 @@
       <c r="C194" s="85" t="n">
         <v>66445</v>
       </c>
-      <c r="D194" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="F194" s="23" t="s">
-        <v>469</v>
+      <c r="D194" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="F194" s="24" t="s">
+        <v>473</v>
       </c>
       <c r="H194" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="B195" s="31" t="n">
+      <c r="A195" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B195" s="32" t="n">
         <v>75276</v>
       </c>
-      <c r="C195" s="31" t="n">
+      <c r="C195" s="32" t="n">
         <v>76705</v>
       </c>
-      <c r="D195" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F195" s="23" t="s">
-        <v>472</v>
+      <c r="D195" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>476</v>
       </c>
       <c r="H195" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="B196" s="43" t="n">
+      <c r="A196" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="B196" s="44" t="n">
         <v>59894</v>
       </c>
-      <c r="C196" s="43" t="n">
+      <c r="C196" s="44" t="n">
         <v>60945</v>
       </c>
-      <c r="D196" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="F196" s="23" t="s">
-        <v>475</v>
+      <c r="D196" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>479</v>
       </c>
       <c r="H196" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B197" s="43" t="n">
+      <c r="A197" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="B197" s="44" t="n">
         <v>44547</v>
       </c>
-      <c r="C197" s="43" t="n">
+      <c r="C197" s="44" t="n">
         <v>46237</v>
       </c>
-      <c r="D197" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="F197" s="23" t="s">
-        <v>478</v>
+      <c r="D197" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="F197" s="24" t="s">
+        <v>482</v>
       </c>
       <c r="H197" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="B198" s="43" t="n">
+      <c r="A198" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B198" s="44" t="n">
         <v>56320</v>
       </c>
-      <c r="C198" s="43" t="n">
+      <c r="C198" s="44" t="n">
         <v>56994</v>
       </c>
-      <c r="D198" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F198" s="23" t="s">
-        <v>481</v>
+      <c r="D198" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="F198" s="24" t="s">
+        <v>485</v>
       </c>
       <c r="H198" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="B199" s="43" t="n">
+      <c r="A199" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="B199" s="44" t="n">
         <v>179028</v>
       </c>
-      <c r="C199" s="43" t="n">
+      <c r="C199" s="44" t="n">
         <v>180061</v>
       </c>
-      <c r="D199" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="F199" s="23" t="s">
-        <v>484</v>
+      <c r="D199" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="F199" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="H199" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="35" t="s">
-        <v>485</v>
-      </c>
-      <c r="B200" s="31" t="n">
+      <c r="A200" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="B200" s="32" t="n">
         <v>58716</v>
       </c>
-      <c r="C200" s="31" t="n">
+      <c r="C200" s="32" t="n">
         <v>59166</v>
       </c>
-      <c r="D200" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E200" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="F200" s="23" t="s">
-        <v>487</v>
+      <c r="D200" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="F200" s="24" t="s">
+        <v>491</v>
       </c>
       <c r="H200" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="B201" s="31" t="n">
+      <c r="A201" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="B201" s="32" t="n">
         <v>33637</v>
       </c>
-      <c r="C201" s="31" t="n">
+      <c r="C201" s="32" t="n">
         <v>34036</v>
       </c>
-      <c r="D201" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="F201" s="23" t="s">
-        <v>490</v>
+      <c r="D201" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="F201" s="24" t="s">
+        <v>494</v>
       </c>
       <c r="H201" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B202" s="31" t="n">
+      <c r="A202" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B202" s="32" t="n">
         <v>17047</v>
       </c>
-      <c r="C202" s="31" t="n">
+      <c r="C202" s="32" t="n">
         <v>17425</v>
       </c>
-      <c r="D202" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="F202" s="23" t="s">
-        <v>493</v>
+      <c r="D202" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="F202" s="24" t="s">
+        <v>497</v>
       </c>
       <c r="H202" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="B203" s="31" t="n">
+      <c r="A203" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="B203" s="32" t="n">
         <v>243501</v>
       </c>
-      <c r="C203" s="31" t="n">
+      <c r="C203" s="32" t="n">
         <v>244632</v>
       </c>
-      <c r="D203" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E203" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="F203" s="23" t="s">
-        <v>496</v>
+      <c r="D203" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F203" s="24" t="s">
+        <v>500</v>
       </c>
       <c r="H203" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="B204" s="31" t="n">
+      <c r="A204" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B204" s="32" t="n">
         <v>43618</v>
       </c>
-      <c r="C204" s="31" t="n">
+      <c r="C204" s="32" t="n">
         <v>44291</v>
       </c>
-      <c r="D204" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E204" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="F204" s="23" t="s">
-        <v>499</v>
+      <c r="D204" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>503</v>
       </c>
       <c r="H204" s="81" t="n">
         <v>7</v>
@@ -7941,22 +7967,22 @@
     </row>
     <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="82" t="s">
-        <v>500</v>
-      </c>
-      <c r="B205" s="31" t="n">
+        <v>504</v>
+      </c>
+      <c r="B205" s="32" t="n">
         <v>34620</v>
       </c>
-      <c r="C205" s="31" t="n">
+      <c r="C205" s="32" t="n">
         <v>36408</v>
       </c>
-      <c r="D205" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="F205" s="23" t="s">
-        <v>502</v>
+      <c r="D205" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>506</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>10</v>
@@ -7967,22 +7993,22 @@
     </row>
     <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="82" t="s">
-        <v>500</v>
-      </c>
-      <c r="B206" s="31" t="n">
+        <v>504</v>
+      </c>
+      <c r="B206" s="32" t="n">
         <v>25237</v>
       </c>
-      <c r="C206" s="31" t="n">
+      <c r="C206" s="32" t="n">
         <v>27245</v>
       </c>
-      <c r="D206" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="F206" s="23" t="s">
-        <v>502</v>
+      <c r="D206" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="F206" s="24" t="s">
+        <v>506</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>10</v>
@@ -7992,46 +8018,46 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="B207" s="31" t="n">
+      <c r="A207" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="B207" s="32" t="n">
         <v>100086</v>
       </c>
-      <c r="C207" s="31" t="n">
+      <c r="C207" s="32" t="n">
         <v>109174</v>
       </c>
-      <c r="D207" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="F207" s="23" t="s">
-        <v>506</v>
+      <c r="D207" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="F207" s="24" t="s">
+        <v>510</v>
       </c>
       <c r="H207" s="81" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="B208" s="31" t="n">
+      <c r="A208" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B208" s="32" t="n">
         <v>65410</v>
       </c>
-      <c r="C208" s="31" t="n">
+      <c r="C208" s="32" t="n">
         <v>65889</v>
       </c>
-      <c r="D208" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="F208" s="23" t="s">
-        <v>509</v>
+      <c r="D208" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="F208" s="24" t="s">
+        <v>513</v>
       </c>
       <c r="H208" s="81" t="n">
         <v>7</v>
@@ -8039,36 +8065,36 @@
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="86" t="s">
-        <v>510</v>
-      </c>
-      <c r="B210" s="31" t="n">
+        <v>514</v>
+      </c>
+      <c r="B210" s="32" t="n">
         <v>41961</v>
       </c>
-      <c r="C210" s="31" t="n">
+      <c r="C210" s="32" t="n">
         <v>44725</v>
       </c>
-      <c r="D210" s="59" t="n">
+      <c r="D210" s="12" t="n">
         <v>1</v>
       </c>
       <c r="E210" s="87" t="n">
         <v>3275</v>
       </c>
-      <c r="F210" s="23" t="s">
-        <v>511</v>
+      <c r="F210" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G210" s="88"/>
       <c r="H210" s="89" t="n">
         <v>2</v>
       </c>
       <c r="I210" s="90" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="91"/>
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="59"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="12"/>
       <c r="E211" s="87"/>
       <c r="F211" s="92"/>
       <c r="G211" s="88"/>
@@ -8077,12 +8103,12 @@
     </row>
     <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="86" t="s">
-        <v>513</v>
-      </c>
-      <c r="B212" s="31" t="n">
+        <v>517</v>
+      </c>
+      <c r="B212" s="32" t="n">
         <v>186733</v>
       </c>
-      <c r="C212" s="31" t="n">
+      <c r="C212" s="32" t="n">
         <v>188294</v>
       </c>
       <c r="D212" s="94" t="n">
@@ -8091,20 +8117,20 @@
       <c r="E212" s="87" t="n">
         <v>3868</v>
       </c>
-      <c r="F212" s="23" t="s">
-        <v>514</v>
+      <c r="F212" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="G212" s="88"/>
       <c r="H212" s="89" t="n">
         <v>3</v>
       </c>
-      <c r="I212" s="59" t="s">
-        <v>515</v>
+      <c r="I212" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8130,11 +8156,11 @@
   </sheetPr>
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.66"/>
@@ -8146,17 +8172,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B1" s="95" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="96" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D1" s="96"/>
       <c r="E1" s="97" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F1" s="97"/>
       <c r="G1" s="98"/>
@@ -8198,16 +8224,16 @@
       <c r="A2" s="95"/>
       <c r="B2" s="95"/>
       <c r="C2" s="99" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -8246,21 +8272,21 @@
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="87" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="31" t="n">
+        <v>476</v>
+      </c>
+      <c r="C3" s="32" t="n">
         <v>75276</v>
       </c>
-      <c r="D3" s="31" t="n">
+      <c r="D3" s="32" t="n">
         <v>76705</v>
       </c>
-      <c r="E3" s="43" t="n">
+      <c r="E3" s="44" t="n">
         <v>59894</v>
       </c>
-      <c r="F3" s="43" t="n">
+      <c r="F3" s="44" t="n">
         <v>60945</v>
       </c>
       <c r="G3" s="98"/>
@@ -8300,21 +8326,21 @@
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="87" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>475</v>
-      </c>
-      <c r="C4" s="43" t="n">
+        <v>479</v>
+      </c>
+      <c r="C4" s="44" t="n">
         <v>59894</v>
       </c>
-      <c r="D4" s="43" t="n">
+      <c r="D4" s="44" t="n">
         <v>60945</v>
       </c>
-      <c r="E4" s="31" t="n">
+      <c r="E4" s="32" t="n">
         <v>75276</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="32" t="n">
         <v>76705</v>
       </c>
       <c r="G4" s="98"/>
@@ -8394,21 +8420,21 @@
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="87" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="31" t="n">
+        <v>506</v>
+      </c>
+      <c r="C6" s="32" t="n">
         <v>34620</v>
       </c>
-      <c r="D6" s="31" t="n">
+      <c r="D6" s="32" t="n">
         <v>36408</v>
       </c>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="32" t="n">
         <v>25237</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="32" t="n">
         <v>27245</v>
       </c>
       <c r="G6" s="98"/>
@@ -8448,21 +8474,21 @@
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="87" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="31" t="n">
+        <v>506</v>
+      </c>
+      <c r="C7" s="32" t="n">
         <v>25237</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>27245</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="32" t="n">
         <v>34620</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="32" t="n">
         <v>36408</v>
       </c>
       <c r="G7" s="98"/>
@@ -8545,7 +8571,7 @@
         <v>3855</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C9" s="83" t="n">
         <v>50728</v>
@@ -8596,10 +8622,10 @@
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="87" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C10" s="83" t="n">
         <v>116620</v>
@@ -10455,55 +10481,55 @@
       <c r="AN53" s="98"/>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/databases/xlsx/import_all/import 21.05.xlsx
+++ b/databases/xlsx/import_all/import 21.05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="525">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -3202,10 +3202,10 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="B210" activeCellId="0" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3215,7 +3215,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="115.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="138.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="42.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.99"/>
@@ -5517,6 +5517,9 @@
       <c r="H98" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="I98" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="59"/>
@@ -6447,6 +6450,9 @@
       <c r="H138" s="60" t="n">
         <v>5</v>
       </c>
+      <c r="I138" s="12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="74"/>
@@ -7227,6 +7233,9 @@
       <c r="H172" s="75" t="n">
         <v>6</v>
       </c>
+      <c r="I172" s="12" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="80"/>
@@ -8061,6 +8070,9 @@
       </c>
       <c r="H208" s="81" t="n">
         <v>7</v>
+      </c>
+      <c r="I208" s="12" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,7 +8168,7 @@
   </sheetPr>
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/databases/xlsx/import_all/import 21.05.xlsx
+++ b/databases/xlsx/import_all/import 21.05.xlsx
@@ -3203,12 +3203,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B210" activeCellId="0" sqref="B210"/>
+      <selection pane="bottomLeft" activeCell="C181" activeCellId="0" sqref="C181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -7444,10 +7444,10 @@
         <v>436</v>
       </c>
       <c r="B182" s="44" t="n">
-        <v>38950</v>
+        <v>36950</v>
       </c>
       <c r="C182" s="44" t="n">
-        <v>38950</v>
+        <v>37450</v>
       </c>
       <c r="D182" s="44" t="n">
         <v>1</v>
@@ -8172,7 +8172,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.66"/>
